--- a/attendance-files/AIMLB/AIMLB Attendance - B.xlsx
+++ b/attendance-files/AIMLB/AIMLB Attendance - B.xlsx
@@ -1683,11 +1683,11 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>36</v>
@@ -1731,8 +1731,8 @@
       <c r="T8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="39" t="s">
-        <v>36</v>
+      <c r="U8" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V8" s="19"/>
       <c r="W8" s="6"/>
@@ -2048,11 +2048,11 @@
       </c>
       <c r="E13" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>37</v>
@@ -2096,8 +2096,8 @@
       <c r="T13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="39" t="s">
-        <v>36</v>
+      <c r="U13" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V13" s="19"/>
       <c r="W13" s="6"/>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="E19" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>36</v>
@@ -2534,8 +2534,8 @@
       <c r="T19" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="39" t="s">
-        <v>36</v>
+      <c r="U19" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V19" s="19"/>
       <c r="W19" s="6"/>
@@ -2559,11 +2559,11 @@
       </c>
       <c r="E20" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>36</v>
@@ -2607,8 +2607,8 @@
       <c r="T20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="39" t="s">
-        <v>36</v>
+      <c r="U20" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V20" s="19"/>
       <c r="W20" s="6"/>
@@ -2632,11 +2632,11 @@
       </c>
       <c r="E21" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>36</v>
@@ -2680,8 +2680,8 @@
       <c r="T21" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="39" t="s">
-        <v>36</v>
+      <c r="U21" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V21" s="19"/>
       <c r="W21" s="6"/>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="E24" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>36</v>
@@ -2899,8 +2899,8 @@
       <c r="T24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="39" t="s">
-        <v>36</v>
+      <c r="U24" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V24" s="19"/>
       <c r="W24" s="6"/>
@@ -3070,11 +3070,11 @@
       </c>
       <c r="E27" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>36</v>
@@ -3118,8 +3118,8 @@
       <c r="T27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U27" s="39" t="s">
-        <v>36</v>
+      <c r="U27" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V27" s="19"/>
       <c r="W27" s="6"/>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="E28" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>36</v>
@@ -3191,8 +3191,8 @@
       <c r="T28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="39" t="s">
-        <v>36</v>
+      <c r="U28" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V28" s="19"/>
       <c r="W28" s="6"/>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>36</v>
@@ -3264,8 +3264,8 @@
       <c r="T29" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="39" t="s">
-        <v>36</v>
+      <c r="U29" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V29" s="19"/>
       <c r="W29" s="6"/>
@@ -3435,11 +3435,11 @@
       </c>
       <c r="E32" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>36</v>
@@ -3483,8 +3483,8 @@
       <c r="T32" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="39" t="s">
-        <v>36</v>
+      <c r="U32" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V32" s="19"/>
       <c r="W32" s="6"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="E34" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>36</v>
@@ -3629,8 +3629,8 @@
       <c r="T34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U34" s="39" t="s">
-        <v>36</v>
+      <c r="U34" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V34" s="19"/>
       <c r="W34" s="6"/>
@@ -3654,11 +3654,11 @@
       </c>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>37</v>
@@ -3702,8 +3702,8 @@
       <c r="T35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U35" s="39" t="s">
-        <v>36</v>
+      <c r="U35" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V35" s="19"/>
       <c r="W35" s="6"/>
@@ -3946,11 +3946,11 @@
       </c>
       <c r="E39" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>36</v>
@@ -3994,8 +3994,8 @@
       <c r="T39" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="39" t="s">
-        <v>36</v>
+      <c r="U39" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V39" s="19"/>
       <c r="W39" s="6"/>
@@ -4092,11 +4092,11 @@
       </c>
       <c r="E41" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>36</v>
@@ -4140,8 +4140,8 @@
       <c r="T41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U41" s="39" t="s">
-        <v>36</v>
+      <c r="U41" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V41" s="19"/>
       <c r="W41" s="6"/>
@@ -4311,11 +4311,11 @@
       </c>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>36</v>
@@ -4359,8 +4359,8 @@
       <c r="T44" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="39" t="s">
-        <v>36</v>
+      <c r="U44" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V44" s="19"/>
       <c r="W44" s="6"/>
@@ -4384,11 +4384,11 @@
       </c>
       <c r="E45" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>36</v>
@@ -4432,8 +4432,8 @@
       <c r="T45" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U45" s="39" t="s">
-        <v>36</v>
+      <c r="U45" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V45" s="19"/>
       <c r="W45" s="6"/>
@@ -4457,11 +4457,11 @@
       </c>
       <c r="E46" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>36</v>
@@ -4505,8 +4505,8 @@
       <c r="T46" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U46" s="39" t="s">
-        <v>36</v>
+      <c r="U46" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V46" s="19"/>
       <c r="W46" s="6"/>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="E47" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>37</v>
@@ -4578,8 +4578,8 @@
       <c r="T47" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U47" s="39" t="s">
-        <v>36</v>
+      <c r="U47" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V47" s="19"/>
       <c r="W47" s="6"/>
@@ -4676,11 +4676,11 @@
       </c>
       <c r="E49" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>36</v>
@@ -4724,8 +4724,8 @@
       <c r="T49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="39" t="s">
-        <v>36</v>
+      <c r="U49" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V49" s="19"/>
       <c r="W49" s="6"/>
@@ -4749,11 +4749,11 @@
       </c>
       <c r="E50" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>36</v>
@@ -4797,8 +4797,8 @@
       <c r="T50" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="39" t="s">
-        <v>36</v>
+      <c r="U50" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V50" s="19"/>
       <c r="W50" s="6"/>
@@ -4822,11 +4822,11 @@
       </c>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>36</v>
@@ -4870,8 +4870,8 @@
       <c r="T51" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U51" s="39" t="s">
-        <v>36</v>
+      <c r="U51" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V51" s="19"/>
       <c r="W51" s="6"/>
@@ -5114,11 +5114,11 @@
       </c>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>36</v>
@@ -5162,8 +5162,8 @@
       <c r="T55" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U55" s="39" t="s">
-        <v>36</v>
+      <c r="U55" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V55" s="19"/>
       <c r="W55" s="6"/>
@@ -5260,11 +5260,11 @@
       </c>
       <c r="E57" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>36</v>
@@ -5308,8 +5308,8 @@
       <c r="T57" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U57" s="39" t="s">
-        <v>36</v>
+      <c r="U57" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V57" s="19"/>
       <c r="W57" s="6"/>
@@ -5333,11 +5333,11 @@
       </c>
       <c r="E58" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>36</v>
@@ -5381,8 +5381,8 @@
       <c r="T58" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U58" s="39" t="s">
-        <v>36</v>
+      <c r="U58" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V58" s="19"/>
       <c r="W58" s="6"/>
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E60" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>36</v>
@@ -5527,8 +5527,8 @@
       <c r="T60" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U60" s="39" t="s">
-        <v>36</v>
+      <c r="U60" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V60" s="19"/>
       <c r="W60" s="6"/>
@@ -5552,11 +5552,11 @@
       </c>
       <c r="E61" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>36</v>
@@ -5600,8 +5600,8 @@
       <c r="T61" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U61" s="39" t="s">
-        <v>36</v>
+      <c r="U61" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V61" s="19"/>
       <c r="W61" s="6"/>
@@ -5917,11 +5917,11 @@
       </c>
       <c r="E66" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>36</v>
@@ -5965,8 +5965,8 @@
       <c r="T66" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U66" s="39" t="s">
-        <v>36</v>
+      <c r="U66" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V66" s="19"/>
       <c r="W66" s="6"/>
@@ -6282,11 +6282,11 @@
       </c>
       <c r="E71" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>36</v>
@@ -6330,8 +6330,8 @@
       <c r="T71" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U71" s="39" t="s">
-        <v>36</v>
+      <c r="U71" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V71" s="19"/>
       <c r="W71" s="6"/>
@@ -6355,11 +6355,11 @@
       </c>
       <c r="E72" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>37</v>
@@ -6403,8 +6403,8 @@
       <c r="T72" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U72" s="39" t="s">
-        <v>36</v>
+      <c r="U72" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V72" s="19"/>
       <c r="W72" s="6"/>
@@ -6428,11 +6428,11 @@
       </c>
       <c r="E73" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>36</v>
@@ -6476,8 +6476,8 @@
       <c r="T73" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="U73" s="39" t="s">
-        <v>36</v>
+      <c r="U73" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="V73" s="19"/>
       <c r="W73" s="6"/>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="U75" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V75" s="19"/>
       <c r="W75" s="6"/>
@@ -13734,7 +13734,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P92 Q7 R8:T8 R11 S11:S12 Q15 S15:S16 Q18 T18 S19:S22 T20:T22 Q22 R25:R26 R29 T32 R33 S34 S36 T38 Q39:R39 S40:T40 Q43 R44 T44 Q46 S48:S49 Q49 T50 S51 T54:T55 R58 Q60 S61:T61 S64 Q65 S66:S67 T66 Q67 S69 T69:T70 Q71 S73:T73 Q75:U75">
+  <conditionalFormatting sqref="G7:P92 Q7 R8:U8 R11 S11:S12 U13 Q15 S15:S16 Q18 T18 S19:S22 U19:U21 T20:T22 Q22 U24 R25:R26 U27:U29 R29 T32:U32 R33 S34 U34:U35 S36 T38 Q39:R39 U39 S40:T40 U41 Q43 R44 T44 U44:U47 Q46 S48:S49 Q49 U49:U51 T50 S51 T54:T55 U55 U57:U58 R58 Q60 U60:U61 S61:T61 S64 Q65 S66:S67 T66:U66 Q67 S69 T69:T70 Q71 U71:U73 S73:T73 Q75:U75">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
